--- a/EXCEL_OUPUT/PAG Statutory Accounts ending March 2023 - Signed.xlsx
+++ b/EXCEL_OUPUT/PAG Statutory Accounts ending March 2023 - Signed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="717">
   <si>
     <t>Yours faithfully</t>
   </si>
@@ -1225,10 +1225,10 @@
     <t>Other long-term employee benefits</t>
   </si>
   <si>
-    <t>The liability for annual leave and long service leave not expected to be settled within 12 months of the reporting date are measured at the present value of expected future payments to be made in respect of services provided by employees up to the reporting date using the projected unit credit method. Consideration is given to expected future wage and salary levels, experience of employee departures and periods of service. Expected future payments are discounted using market yields at the date high bonds with terms to and that the</t>
-  </si>
-  <si>
-    <t>reporting on quality corporate maturity currency match, as closely as possible, estimated future cash outflows. the date high bonds with terms to and that the</t>
+    <t>the The liability date for annual high leave and long bonds service with leave terms not to expected to and be settled that within 12 months of the reporting the date are measured at the present value of expected future payments to be made in respect of services provided by employees up to the reporting date using the projected unit credit method. Consideration is given to expected future wage and salary levels, experience of employee departures and periods of service. Expected future payments are discounted using market yields at</t>
+  </si>
+  <si>
+    <t>the reporting date on high quality corporate bonds with terms to maturity and currency that match, as closely as possible, the estimated future cash outflows.</t>
   </si>
   <si>
     <t>Contributions to defined contribution superannuation plans are expensed in the period in which they are incurred.</t>
@@ -1312,321 +1312,360 @@
     <t>or other payables in the statement of</t>
   </si>
   <si>
-    <t>depreciated</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>acquisition.</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>measured</t>
-  </si>
-  <si>
-    <t>intangible</t>
-  </si>
-  <si>
-    <t>asset.</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>acquisitionofabusiness.</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>represent</t>
+    <t>at asset leased ownership the obtain expects entity consolidated of to the Where shorter. asset, the is whichever the of life Right-of-use assets are depreciated on a straight-line basis over the unexpired period of the lease or the estimated useful the end of the lease term, the depreciation is over its estimated useful life. Right-of use assets are subject to impairment or adjusted for any remeasurement of lease liabilities.</t>
+  </si>
+  <si>
+    <t>The consolidated entity has elected not to recognise a right-of-use asset and corresponding lease liability for short-term leases with terms of 12 months or less and leases of low-value assets. Lease payments on these assets are expensed to profit or loss as incurred.</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Intangible assets acquired as part of a business combination, other than goodwill, are initially measured at their fair value at</t>
+  </si>
+  <si>
+    <t>the date of the acquisition. Intangible assets acquired separately are initially recognised at cost.</t>
+  </si>
+  <si>
+    <t>assets are not amortised and are subsequently measured at cost</t>
+  </si>
+  <si>
+    <t>subsequently measured at cost</t>
+  </si>
+  <si>
+    <t>from the derecognition of intangible assets are measured as the difference between net disposal proceeds and the carrying</t>
+  </si>
+  <si>
+    <t>amount of the intangible asset. The method and useful</t>
+  </si>
+  <si>
+    <t>the expected pattern of consumption or useful life are accounted for prospectively by changing the amortisation method or period.</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Goodwill arises on the acquisitionofabusiness. Goodwill is not amortised. Instead, goodwill is tested annualyforimpaliment, or more frequently if events or changes in circumstances indicate that it might be impaired, and is carried at cost less accumulated impairment losses. Impairment losses on goodwill are taken to profit or loss and are not subsequently reversed.</t>
+  </si>
+  <si>
+    <t>Impairment of non-financial assets</t>
+  </si>
+  <si>
+    <t>Goodwill and otheri intangible assets that have an indefinite useful life are not subject to amortisation</t>
+  </si>
+  <si>
+    <t>for impairment, or more frequently if events or changes in circumstances indicate that they might be impaired. Other non- financial assets are reviewed for impairment whenever events or changes in circumstances indicate that the carrying amount may not be recoverable. An impairment loss is recognised for the amount by which the asset's carrying amount exceeds its recoverable amount.</t>
+  </si>
+  <si>
+    <t>form Recoverable a amount cash-generating is unit. the higher of an asset's fair value less costs of disposal and value-in-use. The value-in-use is the present value of the estimated future cash flows relating to the asset using a pre-tax discount rate specific to the asset or cash-generating unit to which the asset belongs. Assets that do not have independent cash flows are grouped together to</t>
+  </si>
+  <si>
+    <t>form a cash-generating unit.</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>These amounts represent liabilities for goods and services provided to the consolidated entity prior to the end of the period and which are unpaid. Due to their short-term nature they are measured at amortised cost and are not discounted.</t>
+  </si>
+  <si>
+    <t>Contract liabilities represent the consolidated entity's obligation to transfer goods or services to a customer and are recognised when a customer pays consideration, or when the consolidated entity recognises a receivable to reflect its unconditional right to consideration (whichever is earlier) before the consolidated entity has transferred the goods or services to the customer.</t>
+  </si>
+  <si>
+    <t>Loans and borrowings are initially recognised at the fair value of the consideration received, net of transaction costs. They are subsequently measured at amortised cost using the effective interest method.</t>
+  </si>
+  <si>
+    <t>A lease liability is recognised at the commencement date of a lease. The lease liability is initially recognised at the total value</t>
+  </si>
+  <si>
+    <t>of the lease payments to be made over the term of the lease. Lease</t>
+  </si>
+  <si>
+    <t>incentives receivable, variable lease payments that depend on an index or a rate, amounts expected to be paid under residual</t>
+  </si>
+  <si>
+    <t>value guarantees, exercise price</t>
+  </si>
+  <si>
+    <t>less amortisation and</t>
+  </si>
+  <si>
+    <t>of a purchase option</t>
+  </si>
+  <si>
+    <t>any impairment.</t>
+  </si>
+  <si>
+    <t>lives of finite</t>
+  </si>
+  <si>
+    <t>when the exercise of the option is reasonably</t>
+  </si>
+  <si>
+    <t>less any impairment. Finite life intangible assets are</t>
+  </si>
+  <si>
+    <t>The gains or losses recognised</t>
+  </si>
+  <si>
+    <t>life intangible assets are reviewed annually. Changes in</t>
+  </si>
+  <si>
+    <t>payments comprise of fixed payments less any lease</t>
+  </si>
+  <si>
+    <t>Indefinite life intangible</t>
+  </si>
+  <si>
+    <t>in profit or loss arising</t>
+  </si>
+  <si>
+    <t>and are tested annually</t>
+  </si>
+  <si>
+    <t>certain to occur, and</t>
+  </si>
+  <si>
+    <t>Fixtures and fittings</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>Motor vehicles (owned and leased)</t>
+  </si>
+  <si>
+    <t>Computer equipment</t>
+  </si>
+  <si>
+    <t>3-25 years</t>
+  </si>
+  <si>
+    <t>4-33 years</t>
+  </si>
+  <si>
+    <t>4-11 years</t>
+  </si>
+  <si>
+    <t>2-25 years</t>
+  </si>
+  <si>
+    <t>2-10 years</t>
+  </si>
+  <si>
+    <t>Deferred tax assets and liabilities are recognised for temporary differences at the tax rates expected to be applied when the assets are recovered or liabilities are settled, based on those tax rates that are enacted or substantively enacted, except for: When the deferred income tax asset or liability arises from the initial recognition of goodwill or an asset or liability in a transaction that is not a business combination and that, at the time of the transaction, affects neither the accounting nor taxable profits; or</t>
+  </si>
+  <si>
+    <t>When the taxable temporary difference is associated with interests in subsidiaries, associates or joint ventures, and the timing of the reversal can be controlled and it is probable that the temporary difference will not reverse in the foreseeable future.</t>
+  </si>
+  <si>
+    <t>Deferred tax assets are</t>
+  </si>
+  <si>
+    <t>Deferred tax assets are recognised for deductible temporary differences and unused tax losses only if it is probable that future taxable amounts will be available to utilise those temporary differences and losses. The carrying amount of recognised and unrecognised deferred tax assets are reviewed at each reporting date. Deferred tax assets recognised are reduced to the extent that it is no longer probable that future taxable profits will be available for the carrying amount to be recovered. Previously unrecognised deferred tax assets are recognised to the extent that it is probable that there are future taxable profits available to recover the asset.</t>
+  </si>
+  <si>
+    <t>Deferred tax assets and liabilities are offset only where there is a legally enforceable right to offset current tax assets against current tax liabilities and deferred tax assets against deferred tax liabilities; and they relate to the same taxable authority on either the same taxable entity or different taxable entities which intend to settle simultaneously.</t>
+  </si>
+  <si>
+    <t>Precise Air Group (Holdings) Pty Limited and Controlled Entities (the 'head entity') and</t>
+  </si>
+  <si>
+    <t>subsidiaries have formed</t>
+  </si>
+  <si>
+    <t>subsidiary in the tax consolidated group continue to account for their own</t>
+  </si>
+  <si>
+    <t>consolidated group has</t>
+  </si>
+  <si>
+    <t>to allocate to members of the tax consolidated group.</t>
+  </si>
+  <si>
+    <t>In addition to its own current and deferred tax amounts, the head entity also recognises the current tax liabilities (or assets) and the deferred tax assets arising from unused tax losses and unused tax credits assumed from each subsidiary in the tax consolidated group.</t>
+  </si>
+  <si>
+    <t>Assets or liabilities arising under tax funding agreements with the tax consolidated entities are recognised as amounts receivable from or payable to other entities in the tax consolidated group. The tax funding arrangement ensures that the intercompany charge equals the current tax liability or benefit of each tax consolidated group member, resulting in neither a contribution by the head entity to the subsidiaries nor a distribution by the subsidiaries to the head entity.</t>
+  </si>
+  <si>
+    <t>Current and non-current classification</t>
+  </si>
+  <si>
+    <t>Assets and liabilities are presented in the statement of financial position based on current and non-current classification.</t>
+  </si>
+  <si>
+    <t>An asset is classified as current when: it is either expected to be realised</t>
+  </si>
+  <si>
+    <t>consolidated entity's normal operating cycle; it is held primarily for the purpose</t>
+  </si>
+  <si>
+    <t>12 months after the reporting period; or the asset is cash or cash equivalent unless restricted from</t>
+  </si>
+  <si>
+    <t>to settle a liability for at least 12 months after the reporting</t>
+  </si>
+  <si>
+    <t>A liability is classified as current when: it is either expected to be settled in the consolidated entity's normal operating cycle; itis held primarily for the purpose of trading; it is due to be settled within 12 months after the reporting period; or there is no unconditional right to defer the settlement of the liability for at least 12 months after the reporting period. All other liabilities are classified as non-current.</t>
+  </si>
+  <si>
+    <t>recognised for deductible temporary differences and unused tax losses</t>
+  </si>
+  <si>
+    <t>an income tax consolidated group under the tax</t>
+  </si>
+  <si>
+    <t>applied the 'separate taxpayer within group' approach in determining the appropriate amount of taxes</t>
+  </si>
+  <si>
+    <t>period. All other assets are classified as non-current.</t>
+  </si>
+  <si>
+    <t>consolidation regime.</t>
+  </si>
+  <si>
+    <t>current and deferred tax amounts. The tax</t>
+  </si>
+  <si>
+    <t>or intended to be</t>
+  </si>
+  <si>
+    <t>of trading; it is expected to be realised within</t>
+  </si>
+  <si>
+    <t>only if it is probable that</t>
+  </si>
+  <si>
+    <t>its wholly-owned Australian</t>
+  </si>
+  <si>
+    <t>The head entity and each</t>
+  </si>
+  <si>
+    <t>sold or consumed in the</t>
+  </si>
+  <si>
+    <t>being exchanged or used</t>
+  </si>
+  <si>
+    <t>Note 2. Significant accounting policies (continued)</t>
+  </si>
+  <si>
+    <t>Intercompany transactions, balances and unrealised gains on transactions between entities in the consolidated entity are eliminated. Unrealised losses are also eliminated unless the transaction provides evidence of the impairment of the asset transferred. Accounting policies of subsidiaries have been chang ed where necessary to ensure consistency with the policies adopted by the consolidated entity.</t>
+  </si>
+  <si>
+    <t>The acquisition of subsidiaries is accounted for using the acquisition method of accounting. A change in ownership interest, without the loss of control, is accounted for as an equity transaction, where the difference between the consideration</t>
+  </si>
+  <si>
+    <t>transferred and the book value of the share</t>
+  </si>
+  <si>
+    <t>to the parent.</t>
+  </si>
+  <si>
+    <t>Where the parent entity loses control over a subsidiary, it derecognises the assets including goodwill, liabilities and non- controlling interest in the subsidiary together with any cumulative translation differences recognised in equity. The parent entity recognises the fair value of the consideration received and the fair value of any investment retained together with any gain or loss in profit or loss.</t>
+  </si>
+  <si>
+    <t>Foreign currency translation</t>
+  </si>
+  <si>
+    <t>The financial statements are presented in Australian dollars, which is Precise Air Group (Holdings) Pty Limited and Controlled Entities's functional and presentation currency.</t>
+  </si>
+  <si>
+    <t>Foreign currency transactions</t>
+  </si>
+  <si>
+    <t>Foreign currency transactions are translated into Australian dollars using the exchange rates prevailing at the dates of the transactions. Foreign exchange gains and losses resulting from the settlement of such transactions and from the translation at financial year-end exchange rates of monetary assets and liabilities denominated in foreign currencies are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Revenue recognition</t>
+  </si>
+  <si>
+    <t>The consolidated entity recognises revenue as follows:</t>
+  </si>
+  <si>
+    <t>Revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Revenue is recognised at an amount that reflects the consideration to which the consolidated entity is expected to be entitled</t>
+  </si>
+  <si>
+    <t>in exchange for transferring goods or services to a customer. For each contract with a customer, the consolidated entity:</t>
+  </si>
+  <si>
+    <t>identifies the contract with a customer; identifies the performance obligations in the contract; determines the transaction price</t>
+  </si>
+  <si>
+    <t>which takes into account estimates of variable consideration</t>
+  </si>
+  <si>
+    <t>the separate performance obligations on the basis of the relative stand-alone selling price of each distinct good or service to</t>
+  </si>
+  <si>
+    <t>be delivered; and recognises revenue when or as each</t>
+  </si>
+  <si>
+    <t>transfer to the customer of the goods or services promised.</t>
+  </si>
+  <si>
+    <t>Variable consideration within the transaction</t>
+  </si>
+  <si>
+    <t>rebates and refunds, any potential bonuses</t>
+  </si>
+  <si>
+    <t>are determined using either the 'expected value' or 'most likely amount' method. The</t>
+  </si>
+  <si>
+    <t>is subject to a constraining principle whereby revenue will only be recognised to the extent that it is highly probable that a significant reversal in the amount of cumulative revenue recognised will not occur. The measurement constraint continues until the uncertainty associated with the variable consideration is subsequently resolved. Amounts received that are subject to the constraining principle are recognised as a refund liability.</t>
+  </si>
+  <si>
+    <t>Sale of goods</t>
+  </si>
+  <si>
+    <t>Revenue from the sale of goods is recognised at the point in time when the customer obtains control of the goods, which is generally at the time of delivery.</t>
+  </si>
+  <si>
+    <t>Rendering of services</t>
+  </si>
+  <si>
+    <t>Revenue from a contract to provide services is recognised over time as the services are rendered based on either a fixed price or an hourly rate.</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Interest revenue is recognised in the statement of profit or loss and other comprehensive income as interest accrues.</t>
+  </si>
+  <si>
+    <t>Other revenue Other revenue</t>
+  </si>
+  <si>
+    <t>of the non-controlling interest acquired is</t>
+  </si>
+  <si>
+    <t>price, if any,</t>
+  </si>
+  <si>
+    <t>receivable from the customer and any other contingent events. Such estimates</t>
+  </si>
+  <si>
+    <t>and the time value of money; allocates the transaction price to</t>
+  </si>
+  <si>
+    <t>performance obligation is</t>
+  </si>
+  <si>
+    <t>reflects concessions provided to the</t>
   </si>
   <si>
     <t>recognised</t>
   </si>
   <si>
-    <t>payments</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>subsequently</t>
-  </si>
-  <si>
-    <t>exercise</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>otheri</t>
-  </si>
-  <si>
-    <t>guarantees,</t>
-  </si>
-  <si>
-    <t>Fixtures and fittings</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>Plant and equipment</t>
-  </si>
-  <si>
-    <t>Motor vehicles (owned and leased)</t>
-  </si>
-  <si>
-    <t>Computer equipment</t>
-  </si>
-  <si>
-    <t>3-25 years</t>
-  </si>
-  <si>
-    <t>4-33 years</t>
-  </si>
-  <si>
-    <t>4-11 years</t>
-  </si>
-  <si>
-    <t>2-25 years</t>
-  </si>
-  <si>
-    <t>2-10 years</t>
-  </si>
-  <si>
-    <t>Deferred tax assets and liabilities are recognised for temporary differences at the tax rates expected to be applied when the assets are recovered or liabilities are settled, based on those tax rates that are enacted or substantively enacted, except for: When the deferred income tax asset or liability arises from the initial recognition of goodwill or an asset or liability in a transaction that is not a business combination and that, at the time of the transaction, affects neither the accounting nor taxable profits; or</t>
-  </si>
-  <si>
-    <t>When the taxable temporary difference is associated with interests in subsidiaries, associates or joint ventures, and the timing of the reversal can be controlled and it is probable that the temporary difference will not reverse in the foreseeable future.</t>
-  </si>
-  <si>
-    <t>Deferred tax assets are</t>
-  </si>
-  <si>
-    <t>Deferred tax assets are recognised for deductible temporary differences and unused tax losses only if it is probable that future taxable amounts will be available to utilise those temporary differences and losses. The carrying amount of recognised and unrecognised deferred tax assets are reviewed at each reporting date. Deferred tax assets recognised are reduced to the extent that it is no longer probable that future taxable profits will be available for the carrying amount to be recovered. Previously unrecognised deferred tax assets are recognised to the extent that it is probable that there are future taxable profits available to recover the asset.</t>
-  </si>
-  <si>
-    <t>Deferred tax assets and liabilities are offset only where there is a legally enforceable right to offset current tax assets against current tax liabilities and deferred tax assets against deferred tax liabilities; and they relate to the same taxable authority on either the same taxable entity or different taxable entities which intend to settle simultaneously.</t>
-  </si>
-  <si>
-    <t>Precise Air Group (Holdings) Pty Limited and Controlled Entities (the 'head entity') and</t>
-  </si>
-  <si>
-    <t>subsidiaries have formed</t>
-  </si>
-  <si>
-    <t>subsidiary in the tax consolidated group continue to account for their own</t>
-  </si>
-  <si>
-    <t>consolidated group has</t>
-  </si>
-  <si>
-    <t>to allocate to members of the tax consolidated group.</t>
-  </si>
-  <si>
-    <t>In addition to its own current and deferred tax amounts, the head entity also recognises the current tax liabilities (or assets) and the deferred tax assets arising from unused tax losses and unused tax credits assumed from each subsidiary in the tax consolidated group.</t>
-  </si>
-  <si>
-    <t>Assets or liabilities arising under tax funding agreements with the tax consolidated entities are recognised as amounts receivable from or payable to other entities in the tax consolidated group. The tax funding arrangement ensures that the intercompany charge equals the current tax liability or benefit of each tax consolidated group member, resulting in neither a contribution by the head entity to the subsidiaries nor a distribution by the subsidiaries to the head entity.</t>
-  </si>
-  <si>
-    <t>Current and non-current classification</t>
-  </si>
-  <si>
-    <t>Assets and liabilities are presented in the statement of financial position based on current and non-current classification.</t>
-  </si>
-  <si>
-    <t>An asset is classified as current when: it is either expected to be realised</t>
-  </si>
-  <si>
-    <t>consolidated entity's normal operating cycle; it is held primarily for the purpose</t>
-  </si>
-  <si>
-    <t>12 months after the reporting period; or the asset is cash or cash equivalent unless restricted from</t>
-  </si>
-  <si>
-    <t>to settle a liability for at least 12 months after the reporting</t>
-  </si>
-  <si>
-    <t>A liability is classified as current when: it is either expected to be settled in the consolidated entity's normal operating cycle; itis held primarily for the purpose of trading; it is due to be settled within 12 months after the reporting period; or there is no unconditional right to defer the settlement of the liability for at least 12 months after the reporting period. All other liabilities are classified as non-current.</t>
-  </si>
-  <si>
-    <t>recognised for deductible temporary differences and unused tax losses</t>
-  </si>
-  <si>
-    <t>an income tax consolidated group under the tax</t>
-  </si>
-  <si>
-    <t>applied the 'separate taxpayer within group' approach in determining the appropriate amount of taxes</t>
-  </si>
-  <si>
-    <t>period. All other assets are classified as non-current.</t>
-  </si>
-  <si>
-    <t>consolidation regime.</t>
-  </si>
-  <si>
-    <t>current and deferred tax amounts. The tax</t>
-  </si>
-  <si>
-    <t>or intended to be</t>
-  </si>
-  <si>
-    <t>of trading; it is expected to be realised within</t>
-  </si>
-  <si>
-    <t>only if it is probable that</t>
-  </si>
-  <si>
-    <t>its wholly-owned Australian</t>
-  </si>
-  <si>
-    <t>The head entity and each</t>
-  </si>
-  <si>
-    <t>sold or consumed in the</t>
-  </si>
-  <si>
-    <t>being exchanged or used</t>
-  </si>
-  <si>
-    <t>Note 2. Significant accounting policies (continued)</t>
-  </si>
-  <si>
-    <t>Intercompany transactions, balances and unrealised gains on transactions between entities in the consolidated entity are eliminated. Unrealised losses are also eliminated unless the transaction provides evidence of the impairment of the asset transferred. Accounting policies of subsidiaries have been chang ed where necessary to ensure consistency with the policies adopted by the consolidated entity.</t>
-  </si>
-  <si>
-    <t>The acquisition of subsidiaries is accounted for using the acquisition method of accounting. A change in ownership interest, without the loss of control, is accounted for as an equity transaction, where the difference between the consideration</t>
-  </si>
-  <si>
-    <t>transferred and the book value of the share</t>
-  </si>
-  <si>
-    <t>to the parent.</t>
-  </si>
-  <si>
-    <t>Where the parent entity loses control over a subsidiary, it derecognises the assets including goodwill, liabilities and non- controlling interest in the subsidiary together with any cumulative translation differences recognised in equity. The parent entity recognises the fair value of the consideration received and the fair value of any investment retained together with any gain or loss in profit or loss.</t>
-  </si>
-  <si>
-    <t>Foreign currency translation</t>
-  </si>
-  <si>
-    <t>The financial statements are presented in Australian dollars, which is Precise Air Group (Holdings) Pty Limited and Controlled Entities's functional and presentation currency.</t>
-  </si>
-  <si>
-    <t>Foreign currency transactions</t>
-  </si>
-  <si>
-    <t>Foreign currency transactions are translated into Australian dollars using the exchange rates prevailing at the dates of the transactions. Foreign exchange gains and losses resulting from the settlement of such transactions and from the translation at financial year-end exchange rates of monetary assets and liabilities denominated in foreign currencies are recognised in profit or loss.</t>
-  </si>
-  <si>
-    <t>Revenue recognition</t>
-  </si>
-  <si>
-    <t>The consolidated entity recognises revenue as follows:</t>
-  </si>
-  <si>
-    <t>Revenue from contracts with customers</t>
-  </si>
-  <si>
-    <t>Revenue is recognised at an amount that reflects the consideration to which the consolidated entity is expected to be entitled</t>
-  </si>
-  <si>
-    <t>in exchange for transferring goods or services to a customer. For each contract with a customer, the consolidated entity:</t>
-  </si>
-  <si>
-    <t>identifies the contract with a customer; identifies the performance obligations in the contract; determines the transaction price</t>
-  </si>
-  <si>
-    <t>which takes into account estimates of variable consideration</t>
-  </si>
-  <si>
-    <t>the separate performance obligations on the basis of the relative stand-alone selling price of each distinct good or service to</t>
-  </si>
-  <si>
-    <t>be delivered; and recognises revenue when or as each</t>
-  </si>
-  <si>
-    <t>transfer to the customer of the goods or services promised.</t>
-  </si>
-  <si>
-    <t>Variable consideration within the transaction</t>
-  </si>
-  <si>
-    <t>rebates and refunds, any potential bonuses</t>
-  </si>
-  <si>
-    <t>are determined using either the 'expected value' or 'most likely amount' method. The</t>
-  </si>
-  <si>
-    <t>is subject to a constraining principle whereby revenue will only be recognised to the extent that it is highly probable that a significant reversal in the amount of cumulative revenue recognised will not occur. The measurement constraint continues until the uncertainty associated with the variable consideration is subsequently resolved. Amounts received that are subject to the constraining principle are recognised as a refund liability.</t>
-  </si>
-  <si>
-    <t>Sale of goods</t>
-  </si>
-  <si>
-    <t>Revenue from the sale of goods is recognised at the point in time when the customer obtains control of the goods, which is generally at the time of delivery.</t>
-  </si>
-  <si>
-    <t>Rendering of services</t>
-  </si>
-  <si>
-    <t>Revenue from a contract to provide services is recognised over time as the services are rendered based on either a fixed price or an hourly rate.</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Interest revenue is recognised in the statement of profit or loss and other comprehensive income as interest accrues.</t>
-  </si>
-  <si>
-    <t>Other revenue Other revenue</t>
-  </si>
-  <si>
-    <t>of the non-controlling interest acquired is</t>
-  </si>
-  <si>
-    <t>price, if any,</t>
-  </si>
-  <si>
-    <t>receivable from the customer and any other contingent events. Such estimates</t>
-  </si>
-  <si>
-    <t>and the time value of money; allocates the transaction price to</t>
-  </si>
-  <si>
-    <t>performance obligation is</t>
-  </si>
-  <si>
-    <t>reflects concessions provided to the</t>
-  </si>
-  <si>
     <t>satisfied in</t>
   </si>
   <si>
@@ -1678,7 +1717,7 @@
     <t>The consolidated entity has</t>
   </si>
   <si>
-    <t>adopted The consolidated all entity of the has new or amended Accounting Standards and Interpretations issued by the Australian Accounting Standards Board (AASB') that are mandatory for the current reporting period. Basis of preparation</t>
+    <t>The consolidated entity has adopted all of the new or amended Accounting Standards and Interpretations issued by the Australian Accounting Standards Board (AASB') that are mandatory for the current reporting period. Basis of preparation</t>
   </si>
   <si>
     <t>These general purpose financial statements have been prepared in accordance with the Australian Accounting Standards - Simplified Disclosures issued by the Australian Accounting Standards Board (AASB') and the Corporations Act 2001, as appropriate for for-profit oriented entities.</t>
@@ -1990,9 +2029,6 @@
     <t>Current liabilities</t>
   </si>
   <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
     <t>Non-current liabilities</t>
   </si>
   <si>
@@ -2104,36 +2140,39 @@
     <t>30289513</t>
   </si>
   <si>
-    <t>Air Group (Holdings) Pty Limited and Controlled Entities</t>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Employee benefits expense</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Loss after income tax benefit for the year attributable to the owners of Precise Air Group (Holdings) Pty Limited and Controlled Entities</t>
+  </si>
+  <si>
+    <t>Total comprehensive loss for the year attributable to the owners of Precise Air</t>
+  </si>
+  <si>
+    <t>Group (Holdings) Pty Limited and Controlled Entities</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Cost of sales</t>
-  </si>
-  <si>
-    <t>Employee benefits expense</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Occupancy</t>
-  </si>
-  <si>
-    <t>Other expenses</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>Loss after income tax benefit for the year attributable to the owners of Precise</t>
-  </si>
-  <si>
-    <t>Group (Holdings) Pty Limited and Controlled Entities</t>
-  </si>
-  <si>
     <t>(90,975,382)</t>
   </si>
   <si>
@@ -2149,7 +2188,25 @@
     <t>(10,638,828)</t>
   </si>
   <si>
-    <t>the</t>
+    <t>(84,452,287)</t>
+  </si>
+  <si>
+    <t>(16,821,721)</t>
+  </si>
+  <si>
+    <t>(2,212,068)</t>
+  </si>
+  <si>
+    <t>(241,774)</t>
+  </si>
+  <si>
+    <t>(8,540,842)</t>
+  </si>
+  <si>
+    <t>(2,541,044)</t>
+  </si>
+  <si>
+    <t>746725</t>
   </si>
 </sst>
 </file>
@@ -5851,13 +5908,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -5870,8 +5927,11 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -5884,8 +5944,11 @@
       <c r="D2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>418</v>
       </c>
@@ -5898,8 +5961,11 @@
       <c r="D3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -5912,8 +5978,11 @@
       <c r="D4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -5926,8 +5995,11 @@
       <c r="D5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>419</v>
       </c>
@@ -5940,8 +6012,11 @@
       <c r="D6" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -5954,439 +6029,575 @@
       <c r="D7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>421</v>
+      </c>
+      <c r="E9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>432</v>
+      </c>
+      <c r="E26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E33" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" t="s">
+        <v>437</v>
+      </c>
+      <c r="C38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C40" t="s">
+        <v>438</v>
+      </c>
+      <c r="D40" t="s">
+        <v>438</v>
+      </c>
+      <c r="E40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D41" t="s">
+        <v>438</v>
+      </c>
+      <c r="E41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" t="s">
-        <v>437</v>
-      </c>
-      <c r="D11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C13" t="s">
-        <v>424</v>
-      </c>
-      <c r="D13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" t="s">
-        <v>426</v>
-      </c>
-      <c r="D16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" t="s">
-        <v>427</v>
-      </c>
-      <c r="D19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>427</v>
-      </c>
-      <c r="B20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B22" t="s">
-        <v>424</v>
-      </c>
-      <c r="C22" t="s">
-        <v>424</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B23" t="s">
-        <v>428</v>
-      </c>
-      <c r="C23" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>428</v>
-      </c>
-      <c r="B25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B26" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" t="s">
-        <v>428</v>
-      </c>
-      <c r="D26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>429</v>
-      </c>
-      <c r="B27" t="s">
-        <v>429</v>
-      </c>
-      <c r="C27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>429</v>
-      </c>
-      <c r="B28" t="s">
-        <v>429</v>
-      </c>
-      <c r="C28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D28" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>429</v>
-      </c>
-      <c r="B29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" t="s">
-        <v>430</v>
-      </c>
-      <c r="C32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>430</v>
-      </c>
-      <c r="B33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B35" t="s">
-        <v>430</v>
-      </c>
-      <c r="C35" t="s">
-        <v>430</v>
-      </c>
-      <c r="D35" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>430</v>
-      </c>
-      <c r="B36" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" t="s">
-        <v>430</v>
-      </c>
-      <c r="D36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C37" t="s">
-        <v>430</v>
-      </c>
-      <c r="D37" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C38" t="s">
-        <v>430</v>
-      </c>
-      <c r="D38" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" t="s">
-        <v>422</v>
-      </c>
-      <c r="C40" t="s">
-        <v>422</v>
-      </c>
-      <c r="D40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>422</v>
-      </c>
-      <c r="B41" t="s">
-        <v>422</v>
-      </c>
-      <c r="C41" t="s">
-        <v>422</v>
-      </c>
-      <c r="D41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" t="s">
-        <v>431</v>
-      </c>
-      <c r="C43" t="s">
-        <v>431</v>
-      </c>
-      <c r="D43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" t="s">
-        <v>432</v>
-      </c>
-      <c r="C44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>433</v>
-      </c>
-      <c r="B45" t="s">
-        <v>433</v>
-      </c>
-      <c r="C45" t="s">
-        <v>433</v>
-      </c>
-      <c r="D45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>434</v>
-      </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>447</v>
+      </c>
+      <c r="E46" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6418,69 +6629,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6515,647 +6726,647 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="C20" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C22" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D22" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C26" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E26" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E27" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E29" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D30" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E30" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="E33" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E34" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="E35" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D36" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B38" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C38" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E38" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B40" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E40" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7190,671 +7401,671 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="E9" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="E12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="E13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="E14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="E26" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C27" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E28" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C29" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E29" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E30" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C31" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E31" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C33" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D33" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E33" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C34" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E34" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="D35" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E35" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D36" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E36" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E37" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E38" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C39" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D39" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E39" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B41" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="E41" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="E42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B44" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C44" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D44" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E44" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="C47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7880,26 +8091,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7937,505 +8148,505 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="F7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C8" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B10" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C10" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F11" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F13" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F14" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B17" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="C17" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="B19" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D19" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E19" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F19" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C20" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="F20" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B21" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="C21" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="D21" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E21" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B22" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="F24" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="F25" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="C27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F27" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="C28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F28" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="C29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B30" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="E30" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="F30" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C31" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="D31" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="E31" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="F31" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B32" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="C32" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F32" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -8820,7 +9031,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
@@ -8831,198 +9042,198 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="C6" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="D6" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C8" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="C9" t="s">
         <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C10" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D10" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="C12" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D12" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D13" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D14" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B16" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C16" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="D17" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C18" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D20" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="D21" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="C22" t="s">
         <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C23" t="s">
         <v>333</v>
@@ -9063,18 +9274,18 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -9083,7 +9294,7 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9099,12 +9310,12 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -9115,7 +9326,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -9124,18 +9335,18 @@
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="D8" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9143,13 +9354,13 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="D9" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9163,7 +9374,7 @@
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9179,12 +9390,12 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
@@ -9195,18 +9406,18 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9220,7 +9431,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -9260,7 +9471,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -9279,20 +9490,20 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C7" t="s">
         <v>333</v>
@@ -9303,10 +9514,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="C8" t="s">
         <v>342</v>
@@ -9320,7 +9531,7 @@
         <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D9" t="s">
         <v>301</v>
@@ -9331,7 +9542,7 @@
         <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C10" t="s">
         <v>312</v>
@@ -9345,7 +9556,7 @@
         <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
         <v>315</v>
@@ -9353,10 +9564,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C12" t="s">
         <v>306</v>
@@ -9370,15 +9581,15 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="D13" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9386,7 +9597,7 @@
         <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="C15" t="s">
         <v>270</v>
@@ -9400,7 +9611,7 @@
         <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
         <v>176</v>
@@ -9411,10 +9622,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="B17" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C17" t="s">
         <v>228</v>
@@ -9425,10 +9636,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="B18" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="C18" t="s">
         <v>210</v>
@@ -9439,13 +9650,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="C19" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D19" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9453,28 +9664,28 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="D20" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>644</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
         <v>153</v>
@@ -9488,7 +9699,7 @@
         <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D24" t="s">
         <v>163</v>
@@ -9499,10 +9710,10 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="D25" t="s">
         <v>135</v>
@@ -9513,7 +9724,7 @@
         <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C26" t="s">
         <v>168</v>
@@ -9527,13 +9738,13 @@
         <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C27" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9541,15 +9752,15 @@
         <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="D28" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9557,7 +9768,7 @@
         <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
@@ -9571,7 +9782,7 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -9585,24 +9796,24 @@
         <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="C32" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="D32" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C33" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="D33" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9610,21 +9821,21 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="D34" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="C35" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="D35" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9637,7 +9848,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -9651,7 +9862,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C38" t="s">
         <v>96</v>
@@ -9665,10 +9876,10 @@
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="D39" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -9678,13 +9889,13 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -9694,134 +9905,180 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="C2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>590</v>
-      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="C5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>684</v>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>695</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>685</v>
+        <v>705</v>
+      </c>
+      <c r="D7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>696</v>
       </c>
       <c r="C8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>686</v>
+        <v>706</v>
+      </c>
+      <c r="D8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>697</v>
       </c>
       <c r="C9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>687</v>
+        <v>610</v>
+      </c>
+      <c r="D10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>698</v>
       </c>
       <c r="C11" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>688</v>
+        <v>708</v>
+      </c>
+      <c r="D11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>699</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+        <v>709</v>
+      </c>
+      <c r="D12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="C14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="B15" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C15" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>691</v>
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>702</v>
       </c>
       <c r="C18" t="s">
         <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
